--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>01-1月 -18</t>
   </si>
@@ -1131,6 +1131,10 @@
   </si>
   <si>
     <t>Week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1198,12 +1202,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1508,11 +1513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A369" sqref="A369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9938,6 +9943,11 @@
         <v>01</v>
       </c>
     </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A368" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
